--- a/metrics/MAPE/Fallo Cardiaco.xlsx
+++ b/metrics/MAPE/Fallo Cardiaco.xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.02198428932128041</v>
+        <v>0.02201793066408441</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02207022682725882</v>
+        <v>0.02179891650764746</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02207195515147838</v>
+        <v>0.02179671840349664</v>
       </c>
     </row>
     <row r="4">
@@ -497,10 +497,10 @@
         <v>0.01257974491403421</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0125797449140342</v>
+        <v>0.01257974491403423</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01257974491403421</v>
+        <v>0.01257974491403422</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0420299974773027</v>
+        <v>0.04654036700884014</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04476365923657386</v>
+        <v>0.04555487471020344</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04348049447322955</v>
+        <v>0.0408996534809167</v>
       </c>
     </row>
   </sheetData>
